--- a/Planilha Comparação PJ x CLT x Autônomo.xlsx
+++ b/Planilha Comparação PJ x CLT x Autônomo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\AppData\Local\Microsoft\Windows\Temporary Internet Files\Content.Outlook\V3SWVX0V\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tools\pj-clt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -12266,30 +12266,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -12299,14 +12280,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -12332,17 +12305,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -12392,6 +12354,44 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12410,6 +12410,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12419,23 +12420,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12819,8 +12819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12842,62 +12842,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="179" t="s">
+      <c r="F1" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="M1" s="179"/>
-      <c r="N1" s="179"/>
-      <c r="O1" s="179"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
       <c r="P1" s="105"/>
       <c r="Q1" s="105"/>
       <c r="R1" s="105"/>
       <c r="S1" s="105"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
       <c r="P2" s="105"/>
       <c r="Q2" s="105"/>
       <c r="R2" s="105"/>
       <c r="S2" s="105"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="179"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="179"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="191"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="191"/>
+      <c r="O4" s="191"/>
       <c r="P4" s="100"/>
       <c r="Q4" s="99"/>
       <c r="R4" s="101"/>
@@ -12909,24 +12909,24 @@
       <c r="X4" s="101"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="179"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="179"/>
-      <c r="L5" s="179"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="160"/>
-      <c r="S5" s="160"/>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="191"/>
+      <c r="K5" s="191"/>
+      <c r="L5" s="191"/>
+      <c r="M5" s="191"/>
+      <c r="N5" s="191"/>
+      <c r="O5" s="191"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="182"/>
+      <c r="U5" s="182"/>
+      <c r="V5" s="182"/>
+      <c r="W5" s="182"/>
       <c r="X5" s="101"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13009,14 +13009,14 @@
       <c r="M9" s="112"/>
       <c r="N9" s="112"/>
       <c r="O9" s="112"/>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="160"/>
-      <c r="R9" s="160"/>
-      <c r="S9" s="160"/>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="160"/>
-      <c r="W9" s="160"/>
+      <c r="P9" s="182"/>
+      <c r="Q9" s="182"/>
+      <c r="R9" s="182"/>
+      <c r="S9" s="182"/>
+      <c r="T9" s="182"/>
+      <c r="U9" s="182"/>
+      <c r="V9" s="182"/>
+      <c r="W9" s="182"/>
       <c r="X9" s="101"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13107,40 +13107,40 @@
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="171" t="s">
+      <c r="A15" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="172"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="167" t="s">
+      <c r="B15" s="165"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="162" t="s">
         <v>3468</v>
       </c>
-      <c r="E15" s="168"/>
-      <c r="F15" s="167" t="s">
+      <c r="E15" s="163"/>
+      <c r="F15" s="162" t="s">
         <v>3469</v>
       </c>
-      <c r="G15" s="168"/>
-      <c r="H15" s="167" t="s">
+      <c r="G15" s="163"/>
+      <c r="H15" s="162" t="s">
         <v>3470</v>
       </c>
-      <c r="I15" s="168"/>
-      <c r="J15" s="167" t="s">
+      <c r="I15" s="163"/>
+      <c r="J15" s="162" t="s">
         <v>3474</v>
       </c>
-      <c r="K15" s="168"/>
-      <c r="L15" s="177" t="s">
+      <c r="K15" s="163"/>
+      <c r="L15" s="189" t="s">
         <v>3471</v>
       </c>
-      <c r="M15" s="178"/>
-      <c r="N15" s="167" t="s">
+      <c r="M15" s="190"/>
+      <c r="N15" s="162" t="s">
         <v>3472</v>
       </c>
-      <c r="O15" s="168"/>
+      <c r="O15" s="163"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="174"/>
-      <c r="B16" s="175"/>
-      <c r="C16" s="176"/>
+      <c r="A16" s="167"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="169"/>
       <c r="D16" s="118" t="s">
         <v>2</v>
       </c>
@@ -13179,11 +13179,11 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="180" t="s">
+      <c r="A17" s="170" t="s">
         <v>2186</v>
       </c>
-      <c r="B17" s="181"/>
-      <c r="C17" s="182"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="172"/>
       <c r="D17" s="122">
         <v>1</v>
       </c>
@@ -13228,11 +13228,11 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="180" t="s">
+      <c r="A18" s="170" t="s">
         <v>2192</v>
       </c>
-      <c r="B18" s="181"/>
-      <c r="C18" s="182"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="172"/>
       <c r="D18" s="122">
         <v>0.28000000000000003</v>
       </c>
@@ -13273,11 +13273,11 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="180" t="s">
+      <c r="A19" s="170" t="s">
         <v>2181</v>
       </c>
-      <c r="B19" s="181"/>
-      <c r="C19" s="182"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="172"/>
       <c r="D19" s="122">
         <v>0.08</v>
       </c>
@@ -13319,11 +13319,11 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="180" t="s">
+      <c r="A20" s="170" t="s">
         <v>2180</v>
       </c>
-      <c r="B20" s="181"/>
-      <c r="C20" s="182"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="172"/>
       <c r="D20" s="126">
         <v>0.1133</v>
       </c>
@@ -13365,11 +13365,11 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="180" t="s">
+      <c r="A21" s="170" t="s">
         <v>2182</v>
       </c>
-      <c r="B21" s="181"/>
-      <c r="C21" s="182"/>
+      <c r="B21" s="171"/>
+      <c r="C21" s="172"/>
       <c r="D21" s="126">
         <v>0.1507</v>
       </c>
@@ -13411,11 +13411,11 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="180" t="s">
+      <c r="A22" s="170" t="s">
         <v>2183</v>
       </c>
-      <c r="B22" s="181"/>
-      <c r="C22" s="182"/>
+      <c r="B22" s="171"/>
+      <c r="C22" s="172"/>
       <c r="D22" s="122">
         <v>0.4</v>
       </c>
@@ -13457,11 +13457,11 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="189" t="s">
+      <c r="A23" s="179" t="s">
         <v>2184</v>
       </c>
-      <c r="B23" s="190"/>
-      <c r="C23" s="191"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="181"/>
       <c r="D23" s="128">
         <v>0</v>
       </c>
@@ -13503,11 +13503,11 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="186" t="s">
+      <c r="A24" s="176" t="s">
         <v>2190</v>
       </c>
-      <c r="B24" s="187"/>
-      <c r="C24" s="188"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="178"/>
       <c r="D24" s="133">
         <f>ROUND((+E24-$I$6)/$I$6,2)</f>
         <v>0.66</v>
@@ -13554,11 +13554,11 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="164" t="s">
+      <c r="A25" s="186" t="s">
         <v>2187</v>
       </c>
-      <c r="B25" s="165"/>
-      <c r="C25" s="166"/>
+      <c r="B25" s="187"/>
+      <c r="C25" s="188"/>
       <c r="D25" s="138">
         <f>ROUND(+E25/$I$6,2)</f>
         <v>0</v>
@@ -13602,11 +13602,11 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="173" t="s">
         <v>2191</v>
       </c>
-      <c r="B26" s="184"/>
-      <c r="C26" s="185"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="175"/>
       <c r="D26" s="138">
         <f>ROUND(+E26/$I$6,2)</f>
         <v>0</v>
@@ -13651,11 +13651,11 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="183" t="s">
+      <c r="A27" s="173" t="s">
         <v>2189</v>
       </c>
-      <c r="B27" s="184"/>
-      <c r="C27" s="185"/>
+      <c r="B27" s="174"/>
+      <c r="C27" s="175"/>
       <c r="D27" s="138">
         <f>ROUND(+E27/$I$6,2)</f>
         <v>0</v>
@@ -13699,11 +13699,11 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="183" t="s">
+      <c r="A28" s="173" t="s">
         <v>2188</v>
       </c>
-      <c r="B28" s="184"/>
-      <c r="C28" s="185"/>
+      <c r="B28" s="174"/>
+      <c r="C28" s="175"/>
       <c r="D28" s="138">
         <f>ROUND(+E28/$I$6,2)</f>
         <v>0.05</v>
@@ -13748,11 +13748,11 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="183" t="s">
         <v>2185</v>
       </c>
-      <c r="B29" s="162"/>
-      <c r="C29" s="163"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="185"/>
       <c r="D29" s="150">
         <f>ROUND(+E29/$I$6,2)</f>
         <v>0.17</v>
@@ -13797,11 +13797,11 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="169" t="s">
+      <c r="A30" s="160" t="s">
         <v>3473</v>
       </c>
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
       <c r="D30" s="154">
         <f>SUM(D25:D29)</f>
         <v>0.22000000000000003</v>
@@ -14125,6 +14125,14 @@
   </sheetData>
   <sheetProtection password="EF37" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="24">
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="P9:W9"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="F1:O5"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A15:C16"/>
@@ -14141,17 +14149,9 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="P9:W9"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="F1:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -49381,18 +49381,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="200" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -50803,11 +50803,11 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="200" t="s">
+      <c r="A131" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="B131" s="200"/>
-      <c r="C131" s="200"/>
+      <c r="B131" s="201"/>
+      <c r="C131" s="201"/>
     </row>
     <row r="132" spans="1:3" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="197" t="s">
@@ -50880,13 +50880,19 @@
       <c r="C141" s="197"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="201"/>
-      <c r="B142" s="201"/>
-      <c r="C142" s="201"/>
+      <c r="A142" s="198"/>
+      <c r="B142" s="198"/>
+      <c r="C142" s="198"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A133:C133"/>
     <mergeCell ref="A141:C141"/>
     <mergeCell ref="A142:C142"/>
     <mergeCell ref="A135:C135"/>
@@ -50895,12 +50901,6 @@
     <mergeCell ref="A138:C138"/>
     <mergeCell ref="A139:C139"/>
     <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A133:C133"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -50924,44 +50924,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="204" t="s">
         <v>2082</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
       <c r="I1" s="53"/>
       <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="202" t="s">
         <v>2083</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
       <c r="I2" s="54"/>
       <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="202" t="s">
         <v>2084</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
       <c r="I3" s="54"/>
       <c r="J3" s="54"/>
     </row>
@@ -51512,43 +51512,43 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="202" t="s">
+      <c r="A26" s="204" t="s">
         <v>2082</v>
       </c>
-      <c r="B26" s="202"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="202"/>
+      <c r="B26" s="204"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="204"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="204"/>
+      <c r="I26" s="204"/>
     </row>
     <row r="27" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="203" t="s">
+      <c r="A27" s="202" t="s">
         <v>2112</v>
       </c>
-      <c r="B27" s="203"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="203"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="203"/>
+      <c r="B27" s="202"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="202"/>
     </row>
     <row r="28" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="203" t="s">
+      <c r="A28" s="202" t="s">
         <v>2113</v>
       </c>
-      <c r="B28" s="203"/>
-      <c r="C28" s="203"/>
-      <c r="D28" s="203"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="203"/>
-      <c r="G28" s="203"/>
-      <c r="H28" s="203"/>
-      <c r="I28" s="203"/>
+      <c r="B28" s="202"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="202"/>
     </row>
     <row r="29" spans="1:9" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
@@ -52160,40 +52160,40 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="202" t="s">
+      <c r="A51" s="204" t="s">
         <v>2082</v>
       </c>
-      <c r="B51" s="202"/>
-      <c r="C51" s="202"/>
-      <c r="D51" s="202"/>
-      <c r="E51" s="202"/>
-      <c r="F51" s="202"/>
-      <c r="G51" s="202"/>
-      <c r="H51" s="202"/>
+      <c r="B51" s="204"/>
+      <c r="C51" s="204"/>
+      <c r="D51" s="204"/>
+      <c r="E51" s="204"/>
+      <c r="F51" s="204"/>
+      <c r="G51" s="204"/>
+      <c r="H51" s="204"/>
     </row>
     <row r="52" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="203" t="s">
+      <c r="A52" s="202" t="s">
         <v>2115</v>
       </c>
-      <c r="B52" s="203"/>
-      <c r="C52" s="203"/>
-      <c r="D52" s="203"/>
-      <c r="E52" s="203"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="203"/>
-      <c r="H52" s="203"/>
+      <c r="B52" s="202"/>
+      <c r="C52" s="202"/>
+      <c r="D52" s="202"/>
+      <c r="E52" s="202"/>
+      <c r="F52" s="202"/>
+      <c r="G52" s="202"/>
+      <c r="H52" s="202"/>
     </row>
     <row r="53" spans="1:9" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="205" t="s">
+      <c r="A53" s="206" t="s">
         <v>2116</v>
       </c>
-      <c r="B53" s="205"/>
-      <c r="C53" s="205"/>
-      <c r="D53" s="205"/>
-      <c r="E53" s="205"/>
-      <c r="F53" s="205"/>
-      <c r="G53" s="205"/>
-      <c r="H53" s="205"/>
+      <c r="B53" s="206"/>
+      <c r="C53" s="206"/>
+      <c r="D53" s="206"/>
+      <c r="E53" s="206"/>
+      <c r="F53" s="206"/>
+      <c r="G53" s="206"/>
+      <c r="H53" s="206"/>
     </row>
     <row r="54" spans="1:9" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="55" t="s">
@@ -52742,37 +52742,37 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="202" t="s">
+      <c r="A76" s="204" t="s">
         <v>2082</v>
       </c>
-      <c r="B76" s="202"/>
-      <c r="C76" s="202"/>
-      <c r="D76" s="202"/>
-      <c r="E76" s="202"/>
-      <c r="F76" s="202"/>
-      <c r="G76" s="202"/>
+      <c r="B76" s="204"/>
+      <c r="C76" s="204"/>
+      <c r="D76" s="204"/>
+      <c r="E76" s="204"/>
+      <c r="F76" s="204"/>
+      <c r="G76" s="204"/>
     </row>
     <row r="77" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="206" t="s">
+      <c r="A77" s="207" t="s">
         <v>2118</v>
       </c>
-      <c r="B77" s="206"/>
-      <c r="C77" s="206"/>
-      <c r="D77" s="206"/>
-      <c r="E77" s="206"/>
-      <c r="F77" s="206"/>
-      <c r="G77" s="206"/>
+      <c r="B77" s="207"/>
+      <c r="C77" s="207"/>
+      <c r="D77" s="207"/>
+      <c r="E77" s="207"/>
+      <c r="F77" s="207"/>
+      <c r="G77" s="207"/>
     </row>
     <row r="78" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="203" t="s">
+      <c r="A78" s="202" t="s">
         <v>2119</v>
       </c>
-      <c r="B78" s="203"/>
-      <c r="C78" s="203"/>
-      <c r="D78" s="203"/>
-      <c r="E78" s="203"/>
-      <c r="F78" s="203"/>
-      <c r="G78" s="203"/>
+      <c r="B78" s="202"/>
+      <c r="C78" s="202"/>
+      <c r="D78" s="202"/>
+      <c r="E78" s="202"/>
+      <c r="F78" s="202"/>
+      <c r="G78" s="202"/>
     </row>
     <row r="79" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="48"/>
@@ -53261,95 +53261,95 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="202" t="s">
+      <c r="A102" s="204" t="s">
         <v>2120</v>
       </c>
-      <c r="B102" s="202"/>
-      <c r="C102" s="202"/>
-      <c r="D102" s="202"/>
-      <c r="E102" s="202"/>
-      <c r="F102" s="202"/>
-      <c r="G102" s="202"/>
-      <c r="H102" s="202"/>
-      <c r="I102" s="202"/>
+      <c r="B102" s="204"/>
+      <c r="C102" s="204"/>
+      <c r="D102" s="204"/>
+      <c r="E102" s="204"/>
+      <c r="F102" s="204"/>
+      <c r="G102" s="204"/>
+      <c r="H102" s="204"/>
+      <c r="I102" s="204"/>
     </row>
     <row r="103" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="203" t="s">
+      <c r="A103" s="202" t="s">
         <v>2121</v>
       </c>
-      <c r="B103" s="203"/>
-      <c r="C103" s="203"/>
-      <c r="D103" s="203"/>
-      <c r="E103" s="203"/>
-      <c r="F103" s="203"/>
-      <c r="G103" s="203"/>
-      <c r="H103" s="203"/>
-      <c r="I103" s="203"/>
+      <c r="B103" s="202"/>
+      <c r="C103" s="202"/>
+      <c r="D103" s="202"/>
+      <c r="E103" s="202"/>
+      <c r="F103" s="202"/>
+      <c r="G103" s="202"/>
+      <c r="H103" s="202"/>
+      <c r="I103" s="202"/>
     </row>
     <row r="104" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="203" t="s">
+      <c r="A104" s="202" t="s">
         <v>2122</v>
       </c>
-      <c r="B104" s="203"/>
-      <c r="C104" s="203"/>
-      <c r="D104" s="203"/>
-      <c r="E104" s="203"/>
-      <c r="F104" s="203"/>
-      <c r="G104" s="203"/>
-      <c r="H104" s="203"/>
-      <c r="I104" s="203"/>
+      <c r="B104" s="202"/>
+      <c r="C104" s="202"/>
+      <c r="D104" s="202"/>
+      <c r="E104" s="202"/>
+      <c r="F104" s="202"/>
+      <c r="G104" s="202"/>
+      <c r="H104" s="202"/>
+      <c r="I104" s="202"/>
     </row>
     <row r="105" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="204" t="s">
+      <c r="A105" s="203" t="s">
         <v>2123</v>
       </c>
-      <c r="B105" s="204"/>
-      <c r="C105" s="204"/>
-      <c r="D105" s="204"/>
-      <c r="E105" s="204"/>
-      <c r="F105" s="204"/>
-      <c r="G105" s="204"/>
-      <c r="H105" s="204"/>
-      <c r="I105" s="204"/>
+      <c r="B105" s="203"/>
+      <c r="C105" s="203"/>
+      <c r="D105" s="203"/>
+      <c r="E105" s="203"/>
+      <c r="F105" s="203"/>
+      <c r="G105" s="203"/>
+      <c r="H105" s="203"/>
+      <c r="I105" s="203"/>
     </row>
     <row r="106" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="204" t="s">
+      <c r="A106" s="203" t="s">
         <v>2124</v>
       </c>
-      <c r="B106" s="204"/>
-      <c r="C106" s="204"/>
-      <c r="D106" s="204"/>
-      <c r="E106" s="204"/>
-      <c r="F106" s="204"/>
-      <c r="G106" s="204"/>
-      <c r="H106" s="204"/>
-      <c r="I106" s="204"/>
+      <c r="B106" s="203"/>
+      <c r="C106" s="203"/>
+      <c r="D106" s="203"/>
+      <c r="E106" s="203"/>
+      <c r="F106" s="203"/>
+      <c r="G106" s="203"/>
+      <c r="H106" s="203"/>
+      <c r="I106" s="203"/>
     </row>
     <row r="107" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="204" t="s">
+      <c r="A107" s="203" t="s">
         <v>2125</v>
       </c>
-      <c r="B107" s="204"/>
-      <c r="C107" s="204"/>
-      <c r="D107" s="204"/>
-      <c r="E107" s="204"/>
-      <c r="F107" s="204"/>
-      <c r="G107" s="204"/>
-      <c r="H107" s="204"/>
-      <c r="I107" s="204"/>
+      <c r="B107" s="203"/>
+      <c r="C107" s="203"/>
+      <c r="D107" s="203"/>
+      <c r="E107" s="203"/>
+      <c r="F107" s="203"/>
+      <c r="G107" s="203"/>
+      <c r="H107" s="203"/>
+      <c r="I107" s="203"/>
     </row>
     <row r="108" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="204" t="s">
+      <c r="A108" s="203" t="s">
         <v>2126</v>
       </c>
-      <c r="B108" s="204"/>
-      <c r="C108" s="204"/>
-      <c r="D108" s="204"/>
-      <c r="E108" s="204"/>
-      <c r="F108" s="204"/>
-      <c r="G108" s="204"/>
-      <c r="H108" s="204"/>
-      <c r="I108" s="204"/>
+      <c r="B108" s="203"/>
+      <c r="C108" s="203"/>
+      <c r="D108" s="203"/>
+      <c r="E108" s="203"/>
+      <c r="F108" s="203"/>
+      <c r="G108" s="203"/>
+      <c r="H108" s="203"/>
+      <c r="I108" s="203"/>
     </row>
     <row r="109" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
@@ -53967,134 +53967,134 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="204" t="s">
+      <c r="A133" s="203" t="s">
         <v>2136</v>
       </c>
-      <c r="B133" s="204"/>
-      <c r="C133" s="204"/>
-      <c r="D133" s="204"/>
-      <c r="E133" s="204"/>
-      <c r="F133" s="204"/>
-      <c r="G133" s="204"/>
-      <c r="H133" s="204"/>
-      <c r="I133" s="204"/>
+      <c r="B133" s="203"/>
+      <c r="C133" s="203"/>
+      <c r="D133" s="203"/>
+      <c r="E133" s="203"/>
+      <c r="F133" s="203"/>
+      <c r="G133" s="203"/>
+      <c r="H133" s="203"/>
+      <c r="I133" s="203"/>
     </row>
     <row r="134" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="204" t="s">
+      <c r="A134" s="203" t="s">
         <v>2137</v>
       </c>
-      <c r="B134" s="204"/>
-      <c r="C134" s="204"/>
-      <c r="D134" s="204"/>
-      <c r="E134" s="204"/>
-      <c r="F134" s="204"/>
-      <c r="G134" s="204"/>
-      <c r="H134" s="204"/>
-      <c r="I134" s="204"/>
+      <c r="B134" s="203"/>
+      <c r="C134" s="203"/>
+      <c r="D134" s="203"/>
+      <c r="E134" s="203"/>
+      <c r="F134" s="203"/>
+      <c r="G134" s="203"/>
+      <c r="H134" s="203"/>
+      <c r="I134" s="203"/>
     </row>
     <row r="135" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="204" t="s">
+      <c r="A135" s="203" t="s">
         <v>2138</v>
       </c>
-      <c r="B135" s="204"/>
-      <c r="C135" s="204"/>
-      <c r="D135" s="204"/>
-      <c r="E135" s="204"/>
-      <c r="F135" s="204"/>
-      <c r="G135" s="204"/>
-      <c r="H135" s="204"/>
-      <c r="I135" s="204"/>
+      <c r="B135" s="203"/>
+      <c r="C135" s="203"/>
+      <c r="D135" s="203"/>
+      <c r="E135" s="203"/>
+      <c r="F135" s="203"/>
+      <c r="G135" s="203"/>
+      <c r="H135" s="203"/>
+      <c r="I135" s="203"/>
     </row>
     <row r="136" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="204" t="s">
+      <c r="A136" s="203" t="s">
         <v>2139</v>
       </c>
-      <c r="B136" s="204"/>
-      <c r="C136" s="204"/>
-      <c r="D136" s="204"/>
-      <c r="E136" s="204"/>
-      <c r="F136" s="204"/>
-      <c r="G136" s="204"/>
-      <c r="H136" s="204"/>
-      <c r="I136" s="204"/>
+      <c r="B136" s="203"/>
+      <c r="C136" s="203"/>
+      <c r="D136" s="203"/>
+      <c r="E136" s="203"/>
+      <c r="F136" s="203"/>
+      <c r="G136" s="203"/>
+      <c r="H136" s="203"/>
+      <c r="I136" s="203"/>
     </row>
     <row r="137" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="204" t="s">
+      <c r="A137" s="203" t="s">
         <v>2140</v>
       </c>
-      <c r="B137" s="204"/>
-      <c r="C137" s="204"/>
-      <c r="D137" s="204"/>
-      <c r="E137" s="204"/>
-      <c r="F137" s="204"/>
-      <c r="G137" s="204"/>
-      <c r="H137" s="204"/>
-      <c r="I137" s="204"/>
+      <c r="B137" s="203"/>
+      <c r="C137" s="203"/>
+      <c r="D137" s="203"/>
+      <c r="E137" s="203"/>
+      <c r="F137" s="203"/>
+      <c r="G137" s="203"/>
+      <c r="H137" s="203"/>
+      <c r="I137" s="203"/>
     </row>
     <row r="138" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="204" t="s">
+      <c r="A138" s="203" t="s">
         <v>2141</v>
       </c>
-      <c r="B138" s="204"/>
-      <c r="C138" s="204"/>
-      <c r="D138" s="204"/>
-      <c r="E138" s="204"/>
-      <c r="F138" s="204"/>
-      <c r="G138" s="204"/>
-      <c r="H138" s="204"/>
-      <c r="I138" s="204"/>
+      <c r="B138" s="203"/>
+      <c r="C138" s="203"/>
+      <c r="D138" s="203"/>
+      <c r="E138" s="203"/>
+      <c r="F138" s="203"/>
+      <c r="G138" s="203"/>
+      <c r="H138" s="203"/>
+      <c r="I138" s="203"/>
     </row>
     <row r="139" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="204" t="s">
+      <c r="A139" s="203" t="s">
         <v>2142</v>
       </c>
-      <c r="B139" s="204"/>
-      <c r="C139" s="204"/>
-      <c r="D139" s="204"/>
-      <c r="E139" s="204"/>
-      <c r="F139" s="204"/>
-      <c r="G139" s="204"/>
-      <c r="H139" s="204"/>
-      <c r="I139" s="204"/>
+      <c r="B139" s="203"/>
+      <c r="C139" s="203"/>
+      <c r="D139" s="203"/>
+      <c r="E139" s="203"/>
+      <c r="F139" s="203"/>
+      <c r="G139" s="203"/>
+      <c r="H139" s="203"/>
+      <c r="I139" s="203"/>
     </row>
     <row r="140" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="204" t="s">
+      <c r="A140" s="203" t="s">
         <v>2143</v>
       </c>
-      <c r="B140" s="204"/>
-      <c r="C140" s="204"/>
-      <c r="D140" s="204"/>
-      <c r="E140" s="204"/>
-      <c r="F140" s="204"/>
-      <c r="G140" s="204"/>
-      <c r="H140" s="204"/>
-      <c r="I140" s="204"/>
+      <c r="B140" s="203"/>
+      <c r="C140" s="203"/>
+      <c r="D140" s="203"/>
+      <c r="E140" s="203"/>
+      <c r="F140" s="203"/>
+      <c r="G140" s="203"/>
+      <c r="H140" s="203"/>
+      <c r="I140" s="203"/>
     </row>
     <row r="141" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="204" t="s">
+      <c r="A141" s="203" t="s">
         <v>2144</v>
       </c>
-      <c r="B141" s="204"/>
-      <c r="C141" s="204"/>
-      <c r="D141" s="204"/>
-      <c r="E141" s="204"/>
-      <c r="F141" s="204"/>
-      <c r="G141" s="204"/>
-      <c r="H141" s="204"/>
-      <c r="I141" s="204"/>
+      <c r="B141" s="203"/>
+      <c r="C141" s="203"/>
+      <c r="D141" s="203"/>
+      <c r="E141" s="203"/>
+      <c r="F141" s="203"/>
+      <c r="G141" s="203"/>
+      <c r="H141" s="203"/>
+      <c r="I141" s="203"/>
     </row>
     <row r="142" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="204" t="s">
+      <c r="A142" s="203" t="s">
         <v>2145</v>
       </c>
-      <c r="B142" s="204"/>
-      <c r="C142" s="204"/>
-      <c r="D142" s="204"/>
-      <c r="E142" s="204"/>
-      <c r="F142" s="204"/>
-      <c r="G142" s="204"/>
-      <c r="H142" s="204"/>
-      <c r="I142" s="204"/>
+      <c r="B142" s="203"/>
+      <c r="C142" s="203"/>
+      <c r="D142" s="203"/>
+      <c r="E142" s="203"/>
+      <c r="F142" s="203"/>
+      <c r="G142" s="203"/>
+      <c r="H142" s="203"/>
+      <c r="I142" s="203"/>
     </row>
     <row r="144" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="47" t="s">
@@ -54541,34 +54541,34 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="202" t="s">
+      <c r="A169" s="204" t="s">
         <v>2082</v>
       </c>
-      <c r="B169" s="202"/>
-      <c r="C169" s="202"/>
-      <c r="D169" s="202"/>
-      <c r="E169" s="202"/>
-      <c r="F169" s="202"/>
+      <c r="B169" s="204"/>
+      <c r="C169" s="204"/>
+      <c r="D169" s="204"/>
+      <c r="E169" s="204"/>
+      <c r="F169" s="204"/>
     </row>
     <row r="170" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="207" t="s">
+      <c r="A170" s="205" t="s">
         <v>2176</v>
       </c>
-      <c r="B170" s="207"/>
-      <c r="C170" s="207"/>
-      <c r="D170" s="207"/>
-      <c r="E170" s="207"/>
-      <c r="F170" s="207"/>
+      <c r="B170" s="205"/>
+      <c r="C170" s="205"/>
+      <c r="D170" s="205"/>
+      <c r="E170" s="205"/>
+      <c r="F170" s="205"/>
     </row>
     <row r="171" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="203" t="s">
+      <c r="A171" s="202" t="s">
         <v>2177</v>
       </c>
-      <c r="B171" s="203"/>
-      <c r="C171" s="203"/>
-      <c r="D171" s="203"/>
-      <c r="E171" s="203"/>
-      <c r="F171" s="203"/>
+      <c r="B171" s="202"/>
+      <c r="C171" s="202"/>
+      <c r="D171" s="202"/>
+      <c r="E171" s="202"/>
+      <c r="F171" s="202"/>
     </row>
     <row r="173" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="76" t="s">
@@ -54867,18 +54867,11 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="32">
-    <mergeCell ref="A171:F171"/>
-    <mergeCell ref="A134:I134"/>
-    <mergeCell ref="A135:I135"/>
-    <mergeCell ref="A136:I136"/>
-    <mergeCell ref="A137:I137"/>
-    <mergeCell ref="A138:I138"/>
-    <mergeCell ref="A139:I139"/>
-    <mergeCell ref="A140:I140"/>
-    <mergeCell ref="A141:I141"/>
-    <mergeCell ref="A142:I142"/>
-    <mergeCell ref="A169:F169"/>
-    <mergeCell ref="A170:F170"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A26:I26"/>
     <mergeCell ref="A28:I28"/>
     <mergeCell ref="A51:H51"/>
     <mergeCell ref="A52:H52"/>
@@ -54894,11 +54887,18 @@
     <mergeCell ref="A106:I106"/>
     <mergeCell ref="A107:I107"/>
     <mergeCell ref="A108:I108"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A171:F171"/>
+    <mergeCell ref="A134:I134"/>
+    <mergeCell ref="A135:I135"/>
+    <mergeCell ref="A136:I136"/>
+    <mergeCell ref="A137:I137"/>
+    <mergeCell ref="A138:I138"/>
+    <mergeCell ref="A139:I139"/>
+    <mergeCell ref="A140:I140"/>
+    <mergeCell ref="A141:I141"/>
+    <mergeCell ref="A142:I142"/>
+    <mergeCell ref="A169:F169"/>
+    <mergeCell ref="A170:F170"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A170" r:id="rId1" display="http://www.normaslegais.com.br/legislacao/resolucao-cgsn-117-2014.htm"/>
